--- a/data_sci_storytime/planets_moons.xlsx
+++ b/data_sci_storytime/planets_moons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie\Documents\Data Science\data_sci_storytime\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julie.fisher/Documents/learning/machine_learning/experiments/data_sci_storytime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C08DB8-88BC-41BC-A81D-44F787DB9031}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B0E826-CAA2-2B4D-9685-E3FE7FA26A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{17F23864-C591-48DA-ABD3-CB397D2BC25F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{17F23864-C591-48DA-ABD3-CB397D2BC25F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planets" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="555">
   <si>
     <t>No</t>
   </si>
@@ -1585,36 +1585,6 @@
     <t>https://nssdc.gsfc.nasa.gov/planetary/factsheet/</t>
   </si>
   <si>
-    <t> Mercury </t>
-  </si>
-  <si>
-    <t> Venus </t>
-  </si>
-  <si>
-    <t> Earth </t>
-  </si>
-  <si>
-    <t> Moon </t>
-  </si>
-  <si>
-    <t> Mars </t>
-  </si>
-  <si>
-    <t> Jupiter </t>
-  </si>
-  <si>
-    <t> Saturn </t>
-  </si>
-  <si>
-    <t> Uranus </t>
-  </si>
-  <si>
-    <t> Neptune </t>
-  </si>
-  <si>
-    <t> Pluto </t>
-  </si>
-  <si>
     <t>mass_1024kg</t>
   </si>
   <si>
@@ -1730,6 +1700,9 @@
   </si>
   <si>
     <t>distance_from_sun_106_km</t>
+  </si>
+  <si>
+    <t>V(1,0) is the apparent visual magnitude of a planet at a distance of r = 1AU from the Sun at a phase angle of 0</t>
   </si>
 </sst>
 </file>
@@ -1737,11 +1710,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,6 +1734,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1784,19 +1763,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2115,38 +2095,39 @@
   <dimension ref="A1:AK19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" customWidth="1"/>
+    <col min="27" max="27" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2154,79 +2135,79 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" t="s">
+        <v>518</v>
+      </c>
+      <c r="H1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O1" t="s">
         <v>525</v>
       </c>
-      <c r="D1" t="s">
+      <c r="P1" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
-        <v>562</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
         <v>527</v>
       </c>
-      <c r="G1" t="s">
+      <c r="R1" t="s">
         <v>528</v>
       </c>
-      <c r="H1" t="s">
+      <c r="S1" t="s">
         <v>529</v>
       </c>
-      <c r="I1" t="s">
+      <c r="T1" t="s">
         <v>530</v>
       </c>
-      <c r="J1" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>531</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>532</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>533</v>
       </c>
-      <c r="N1" t="s">
+      <c r="X1" t="s">
         <v>534</v>
-      </c>
-      <c r="O1" t="s">
-        <v>535</v>
-      </c>
-      <c r="P1" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>537</v>
-      </c>
-      <c r="R1" t="s">
-        <v>538</v>
-      </c>
-      <c r="S1" t="s">
-        <v>539</v>
-      </c>
-      <c r="T1" t="s">
-        <v>540</v>
-      </c>
-      <c r="U1" t="s">
-        <v>541</v>
-      </c>
-      <c r="V1" t="s">
-        <v>542</v>
-      </c>
-      <c r="W1" t="s">
-        <v>543</v>
-      </c>
-      <c r="X1" t="s">
-        <v>544</v>
       </c>
       <c r="Y1" t="s">
         <v>15</v>
       </c>
       <c r="Z1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AA1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="AB1" t="s">
         <v>443</v>
@@ -2259,9 +2240,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2373,9 +2354,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>516</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2487,9 +2468,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>517</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2576,8 +2557,8 @@
       <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD4" t="s">
-        <v>442</v>
+      <c r="AD4">
+        <v>0.04</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -2601,9 +2582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>518</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -2675,8 +2656,12 @@
       <c r="X5" s="4">
         <v>1737.4</v>
       </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="6"/>
+      <c r="Y5" s="4">
+        <v>-0.08</v>
+      </c>
+      <c r="Z5" s="6">
+        <v>0.12</v>
+      </c>
       <c r="AA5" s="4">
         <v>100000</v>
       </c>
@@ -2711,9 +2696,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2825,9 +2810,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2939,9 +2924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -3053,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -3103,7 +3088,9 @@
       <c r="P9" s="6">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="6">
+        <v>0.32</v>
+      </c>
       <c r="R9" s="8">
         <v>-179</v>
       </c>
@@ -3125,7 +3112,9 @@
       <c r="X9" s="4">
         <v>2574.6999999999998</v>
       </c>
-      <c r="Y9" s="4"/>
+      <c r="Y9" s="4">
+        <v>-8.1</v>
+      </c>
       <c r="Z9" s="6">
         <v>0.21</v>
       </c>
@@ -3164,9 +3153,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -3278,9 +3267,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>523</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3392,12 +3381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>524</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C12" s="4">
         <v>1.46E-2</v>
@@ -3454,6 +3443,9 @@
         <v>5</v>
       </c>
       <c r="U12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="4">
@@ -3503,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3517,17 +3509,17 @@
       <selection activeCell="B11" sqref="B11:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="C1" t="s">
         <v>443</v>
@@ -3560,7 +3552,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3598,7 +3590,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3637,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3676,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3714,7 +3706,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3750,7 +3742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3789,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3828,7 +3820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3867,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3906,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>190</v>
       </c>
@@ -3945,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3984,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="1"/>
     </row>
   </sheetData>
@@ -4000,40 +3992,40 @@
       <selection activeCell="G174" sqref="G174:G178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="C1" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D1" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E1" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="F1" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="G1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -4056,7 +4048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4079,7 +4071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4102,7 +4094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -4125,7 +4117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -4148,7 +4140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -4171,7 +4163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -4194,7 +4186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -4217,7 +4209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>64</v>
       </c>
@@ -4240,7 +4232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -4263,7 +4255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -4286,7 +4278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4309,7 +4301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4332,7 +4324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -4355,7 +4347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>75</v>
       </c>
@@ -4378,7 +4370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -4401,7 +4393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -4424,7 +4416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>82</v>
       </c>
@@ -4447,7 +4439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>85</v>
       </c>
@@ -4470,7 +4462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>88</v>
       </c>
@@ -4493,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>90</v>
       </c>
@@ -4516,7 +4508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4539,7 +4531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4562,7 +4554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -4585,7 +4577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -4608,7 +4600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -4631,7 +4623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>102</v>
       </c>
@@ -4654,7 +4646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -4677,7 +4669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>105</v>
       </c>
@@ -4700,7 +4692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>106</v>
       </c>
@@ -4723,7 +4715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>108</v>
       </c>
@@ -4746,7 +4738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>110</v>
       </c>
@@ -4769,7 +4761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -4792,7 +4784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -4815,7 +4807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -4838,7 +4830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -4861,7 +4853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -4884,7 +4876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -4907,7 +4899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -4930,7 +4922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>123</v>
       </c>
@@ -4953,7 +4945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -4976,7 +4968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -4999,7 +4991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -5022,7 +5014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -5045,7 +5037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>130</v>
       </c>
@@ -5068,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>132</v>
       </c>
@@ -5091,7 +5083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -5114,7 +5106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>135</v>
       </c>
@@ -5137,7 +5129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>137</v>
       </c>
@@ -5160,7 +5152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -5183,7 +5175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -5206,7 +5198,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>140</v>
       </c>
@@ -5229,7 +5221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>142</v>
       </c>
@@ -5252,7 +5244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>144</v>
       </c>
@@ -5275,7 +5267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -5298,7 +5290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>147</v>
       </c>
@@ -5321,7 +5313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>148</v>
       </c>
@@ -5344,7 +5336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>149</v>
       </c>
@@ -5367,7 +5359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>150</v>
       </c>
@@ -5390,7 +5382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>151</v>
       </c>
@@ -5413,7 +5405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>152</v>
       </c>
@@ -5436,7 +5428,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>154</v>
       </c>
@@ -5459,7 +5451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>155</v>
       </c>
@@ -5482,7 +5474,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>156</v>
       </c>
@@ -5505,7 +5497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>157</v>
       </c>
@@ -5528,7 +5520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -5551,7 +5543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -5574,7 +5566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -5597,7 +5589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -5620,7 +5612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -5643,7 +5635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -5666,7 +5658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>170</v>
       </c>
@@ -5689,7 +5681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>175</v>
       </c>
@@ -5712,7 +5704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>180</v>
       </c>
@@ -5735,7 +5727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>185</v>
       </c>
@@ -5758,7 +5750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>190</v>
       </c>
@@ -5781,7 +5773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>194</v>
       </c>
@@ -5804,7 +5796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>198</v>
       </c>
@@ -5827,7 +5819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>202</v>
       </c>
@@ -5850,7 +5842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>207</v>
       </c>
@@ -5873,7 +5865,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -5896,7 +5888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>217</v>
       </c>
@@ -5919,7 +5911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>220</v>
       </c>
@@ -5942,7 +5934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>222</v>
       </c>
@@ -5965,7 +5957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>225</v>
       </c>
@@ -5988,7 +5980,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>229</v>
       </c>
@@ -6011,7 +6003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>233</v>
       </c>
@@ -6034,7 +6026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>237</v>
       </c>
@@ -6057,7 +6049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>241</v>
       </c>
@@ -6080,7 +6072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>244</v>
       </c>
@@ -6103,7 +6095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>246</v>
       </c>
@@ -6126,7 +6118,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>248</v>
       </c>
@@ -6149,7 +6141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>252</v>
       </c>
@@ -6172,7 +6164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>253</v>
       </c>
@@ -6195,7 +6187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>254</v>
       </c>
@@ -6218,7 +6210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>255</v>
       </c>
@@ -6241,7 +6233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -6264,7 +6256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -6287,7 +6279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>259</v>
       </c>
@@ -6310,7 +6302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>260</v>
       </c>
@@ -6333,7 +6325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>261</v>
       </c>
@@ -6356,7 +6348,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>263</v>
       </c>
@@ -6379,7 +6371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>265</v>
       </c>
@@ -6402,7 +6394,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>266</v>
       </c>
@@ -6425,7 +6417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>267</v>
       </c>
@@ -6448,7 +6440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>269</v>
       </c>
@@ -6471,7 +6463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>270</v>
       </c>
@@ -6494,7 +6486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>271</v>
       </c>
@@ -6517,7 +6509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>273</v>
       </c>
@@ -6540,7 +6532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>275</v>
       </c>
@@ -6563,7 +6555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>277</v>
       </c>
@@ -6586,7 +6578,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>278</v>
       </c>
@@ -6609,7 +6601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>280</v>
       </c>
@@ -6632,7 +6624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>282</v>
       </c>
@@ -6655,7 +6647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>284</v>
       </c>
@@ -6678,7 +6670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>285</v>
       </c>
@@ -6701,7 +6693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>286</v>
       </c>
@@ -6724,7 +6716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>287</v>
       </c>
@@ -6747,7 +6739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>288</v>
       </c>
@@ -6770,7 +6762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>290</v>
       </c>
@@ -6793,7 +6785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>292</v>
       </c>
@@ -6816,7 +6808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>293</v>
       </c>
@@ -6839,7 +6831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>294</v>
       </c>
@@ -6862,7 +6854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>295</v>
       </c>
@@ -6885,7 +6877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>296</v>
       </c>
@@ -6908,7 +6900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>297</v>
       </c>
@@ -6931,7 +6923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>298</v>
       </c>
@@ -6954,7 +6946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>300</v>
       </c>
@@ -6977,7 +6969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>301</v>
       </c>
@@ -7000,7 +6992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>302</v>
       </c>
@@ -7023,7 +7015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>303</v>
       </c>
@@ -7046,7 +7038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>305</v>
       </c>
@@ -7069,7 +7061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>311</v>
       </c>
@@ -7092,7 +7084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>317</v>
       </c>
@@ -7115,7 +7107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>323</v>
       </c>
@@ -7138,7 +7130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>328</v>
       </c>
@@ -7161,7 +7153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>334</v>
       </c>
@@ -7184,7 +7176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>337</v>
       </c>
@@ -7207,7 +7199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>340</v>
       </c>
@@ -7230,7 +7222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>344</v>
       </c>
@@ -7253,7 +7245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>348</v>
       </c>
@@ -7276,7 +7268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>352</v>
       </c>
@@ -7299,7 +7291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>356</v>
       </c>
@@ -7322,7 +7314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>360</v>
       </c>
@@ -7345,7 +7337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>364</v>
       </c>
@@ -7368,7 +7360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>368</v>
       </c>
@@ -7391,7 +7383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>372</v>
       </c>
@@ -7414,7 +7406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>373</v>
       </c>
@@ -7437,7 +7429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>374</v>
       </c>
@@ -7460,7 +7452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>375</v>
       </c>
@@ -7483,7 +7475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>376</v>
       </c>
@@ -7506,7 +7498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>377</v>
       </c>
@@ -7529,7 +7521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>379</v>
       </c>
@@ -7552,7 +7544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>380</v>
       </c>
@@ -7575,7 +7567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>381</v>
       </c>
@@ -7598,7 +7590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>383</v>
       </c>
@@ -7621,7 +7613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>387</v>
       </c>
@@ -7644,7 +7636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>391</v>
       </c>
@@ -7667,7 +7659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>394</v>
       </c>
@@ -7690,7 +7682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>398</v>
       </c>
@@ -7713,7 +7705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>400</v>
       </c>
@@ -7736,7 +7728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>402</v>
       </c>
@@ -7759,7 +7751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>404</v>
       </c>
@@ -7782,7 +7774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>406</v>
       </c>
@@ -7805,7 +7797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>408</v>
       </c>
@@ -7828,7 +7820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>410</v>
       </c>
@@ -7851,7 +7843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>412</v>
       </c>
@@ -7874,7 +7866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>413</v>
       </c>
@@ -7897,7 +7889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>415</v>
       </c>
@@ -7920,7 +7912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>416</v>
       </c>
@@ -7943,7 +7935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>417</v>
       </c>
@@ -7966,7 +7958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>418</v>
       </c>
@@ -7989,7 +7981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>420</v>
       </c>
@@ -8012,7 +8004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>426</v>
       </c>
@@ -8035,7 +8027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>430</v>
       </c>
@@ -8058,7 +8050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -8081,7 +8073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>437</v>
       </c>
@@ -8117,51 +8109,51 @@
       <selection activeCell="J168" sqref="J168:J170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
         <v>453</v>
       </c>
       <c r="D1" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="F1" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="G1" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="H1" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="I1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="J1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -8172,7 +8164,7 @@
         <v>3476</v>
       </c>
       <c r="H2" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I2">
         <v>27.321999999999999</v>
@@ -8181,7 +8173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -8198,7 +8190,7 @@
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I3">
         <v>1.2629999999999999</v>
@@ -8207,7 +8199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8227,7 +8219,7 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I4">
         <v>0.31900000000000001</v>
@@ -8236,7 +8228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -8256,7 +8248,7 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I5">
         <v>0.29799999999999999</v>
@@ -8265,7 +8257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -8282,7 +8274,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I6">
         <v>736</v>
@@ -8291,7 +8283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -8311,7 +8303,7 @@
         <v>262</v>
       </c>
       <c r="H7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I7">
         <v>0.498</v>
@@ -8320,7 +8312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>75</v>
       </c>
@@ -8337,7 +8329,7 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I8">
         <v>631</v>
@@ -8346,7 +8338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>129</v>
       </c>
@@ -8363,7 +8355,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I9">
         <v>748.8</v>
@@ -8372,7 +8364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -8389,7 +8381,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I10">
         <v>715.6</v>
@@ -8398,7 +8390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>108</v>
       </c>
@@ -8415,7 +8407,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I11">
         <v>753</v>
@@ -8424,7 +8416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -8443,7 +8435,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I12">
         <v>16.689</v>
@@ -8452,7 +8444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>74</v>
       </c>
@@ -8469,7 +8461,7 @@
         <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I13">
         <v>692</v>
@@ -8478,7 +8470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -8495,7 +8487,7 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I14">
         <v>774</v>
@@ -8504,7 +8496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -8521,7 +8513,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I15">
         <v>456.5</v>
@@ -8530,7 +8522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -8547,7 +8539,7 @@
         <v>3.8</v>
       </c>
       <c r="H16" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I16">
         <v>741</v>
@@ -8556,7 +8548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -8573,7 +8565,7 @@
         <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I17">
         <v>737.8</v>
@@ -8582,7 +8574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -8599,7 +8591,7 @@
         <v>80</v>
       </c>
       <c r="H18" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I18">
         <v>259.64999999999998</v>
@@ -8608,7 +8600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -8625,7 +8617,7 @@
         <v>3.2</v>
       </c>
       <c r="H19" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I19">
         <v>672</v>
@@ -8634,7 +8626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -8651,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I20">
         <v>622</v>
@@ -8660,7 +8652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -8677,7 +8669,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I21">
         <v>746.4</v>
@@ -8686,7 +8678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>118</v>
       </c>
@@ -8703,7 +8695,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I22">
         <v>534</v>
@@ -8712,7 +8704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -8729,7 +8721,7 @@
         <v>3126</v>
       </c>
       <c r="H23" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I23">
         <v>3.5510000000000002</v>
@@ -8738,7 +8730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>116</v>
       </c>
@@ -8755,7 +8747,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I24">
         <v>713</v>
@@ -8764,7 +8756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -8781,7 +8773,7 @@
         <v>5276</v>
       </c>
       <c r="H25" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I25">
         <v>7.1550000000000002</v>
@@ -8790,7 +8782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -8807,7 +8799,7 @@
         <v>4.3</v>
       </c>
       <c r="H26" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I26">
         <v>595</v>
@@ -8816,7 +8808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -8833,7 +8825,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I27">
         <v>781.6</v>
@@ -8842,7 +8834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>135</v>
       </c>
@@ -8859,7 +8851,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I28">
         <v>233.8</v>
@@ -8868,7 +8860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -8885,7 +8877,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I29">
         <v>630</v>
@@ -8894,7 +8886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -8911,7 +8903,7 @@
         <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I30">
         <v>250.57</v>
@@ -8920,7 +8912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -8939,7 +8931,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I31">
         <v>1.7689999999999999</v>
@@ -8948,7 +8940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -8965,7 +8957,7 @@
         <v>5.2</v>
       </c>
       <c r="H32" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I32">
         <v>657</v>
@@ -8974,7 +8966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -8991,7 +8983,7 @@
         <v>3.8</v>
       </c>
       <c r="H33" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I33">
         <v>712</v>
@@ -9000,7 +8992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -9017,7 +9009,7 @@
         <v>2</v>
       </c>
       <c r="H34" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I34">
         <v>609</v>
@@ -9026,7 +9018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>133</v>
       </c>
@@ -9043,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I35">
         <v>683</v>
@@ -9052,7 +9044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -9069,7 +9061,7 @@
         <v>5.2</v>
       </c>
       <c r="H36" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I36">
         <v>760</v>
@@ -9078,7 +9070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>140</v>
       </c>
@@ -9095,7 +9087,7 @@
         <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I37">
         <v>779.2</v>
@@ -9104,7 +9096,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -9121,7 +9113,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I38">
         <v>238.72</v>
@@ -9130,7 +9122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -9147,7 +9139,7 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I39">
         <v>259.22000000000003</v>
@@ -9156,7 +9148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>92</v>
       </c>
@@ -9173,7 +9165,7 @@
         <v>5.4</v>
       </c>
       <c r="H40" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I40">
         <v>771</v>
@@ -9182,7 +9174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -9199,7 +9191,7 @@
         <v>40</v>
       </c>
       <c r="H41" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I41">
         <v>0.29499999999999998</v>
@@ -9208,7 +9200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -9225,7 +9217,7 @@
         <v>2</v>
       </c>
       <c r="H42" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I42">
         <v>620.04</v>
@@ -9234,7 +9226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>120</v>
       </c>
@@ -9251,7 +9243,7 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I43">
         <v>617</v>
@@ -9260,7 +9252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -9277,7 +9269,7 @@
         <v>36</v>
       </c>
       <c r="H44" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I44">
         <v>735</v>
@@ -9286,7 +9278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -9303,7 +9295,7 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I45">
         <v>715</v>
@@ -9312,7 +9304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>106</v>
       </c>
@@ -9329,7 +9321,7 @@
         <v>6.8</v>
       </c>
       <c r="H46" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I46">
         <v>632</v>
@@ -9338,7 +9330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>70</v>
       </c>
@@ -9355,7 +9347,7 @@
         <v>28</v>
       </c>
       <c r="H47" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I47">
         <v>758</v>
@@ -9364,7 +9356,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -9381,7 +9373,7 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I48">
         <v>732</v>
@@ -9390,7 +9382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>144</v>
       </c>
@@ -9407,7 +9399,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I49">
         <v>284.3</v>
@@ -9416,7 +9408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>2</v>
       </c>
       <c r="H50" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I50">
         <v>982.5</v>
@@ -9442,7 +9434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -9459,7 +9451,7 @@
         <v>2</v>
       </c>
       <c r="H51" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I51">
         <v>504</v>
@@ -9468,7 +9460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>148</v>
       </c>
@@ -9485,7 +9477,7 @@
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I52">
         <v>723.2</v>
@@ -9494,7 +9486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -9511,7 +9503,7 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I53">
         <v>759.7</v>
@@ -9520,7 +9512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>150</v>
       </c>
@@ -9537,7 +9529,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I54">
         <v>683</v>
@@ -9546,7 +9538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>151</v>
       </c>
@@ -9563,7 +9555,7 @@
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I55">
         <v>767</v>
@@ -9572,7 +9564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -9589,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I56">
         <v>533.29999999999995</v>
@@ -9598,7 +9590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -9615,7 +9607,7 @@
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I57">
         <v>668.4</v>
@@ -9624,7 +9616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>155</v>
       </c>
@@ -9641,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I58">
         <v>595.4</v>
@@ -9650,7 +9642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>142</v>
       </c>
@@ -9667,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I59">
         <v>690.3</v>
@@ -9676,7 +9668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>156</v>
       </c>
@@ -9693,7 +9685,7 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I60">
         <v>606.29999999999995</v>
@@ -9702,7 +9694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -9719,7 +9711,7 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I61">
         <v>701.3</v>
@@ -9728,7 +9720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>158</v>
       </c>
@@ -9745,7 +9737,7 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I62">
         <v>732.44</v>
@@ -9754,7 +9746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -9771,7 +9763,7 @@
         <v>5</v>
       </c>
       <c r="H63" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I63">
         <v>687</v>
@@ -9780,7 +9772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -9797,7 +9789,7 @@
         <v>100</v>
       </c>
       <c r="H64" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I64">
         <v>0.67500000000000004</v>
@@ -9806,7 +9798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>130</v>
       </c>
@@ -9823,7 +9815,7 @@
         <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I65">
         <v>628.09</v>
@@ -9832,7 +9824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
@@ -9849,7 +9841,7 @@
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I66">
         <v>130.07</v>
@@ -9858,7 +9850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>110</v>
       </c>
@@ -9875,7 +9867,7 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I67">
         <v>615</v>
@@ -9884,7 +9876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>271</v>
       </c>
@@ -9901,7 +9893,7 @@
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I68" s="3">
         <v>1116.5</v>
@@ -9910,7 +9902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>263</v>
       </c>
@@ -9927,7 +9919,7 @@
         <v>30</v>
       </c>
       <c r="H69" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I69">
         <v>783</v>
@@ -9936,7 +9928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>252</v>
       </c>
@@ -9953,7 +9945,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I70">
         <v>1.04</v>
@@ -9962,7 +9954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -9982,7 +9974,7 @@
         <v>37</v>
       </c>
       <c r="H71" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I71">
         <v>0.60199999999999998</v>
@@ -9991,7 +9983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>273</v>
       </c>
@@ -10008,7 +10000,7 @@
         <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I72">
         <v>834.8</v>
@@ -10017,7 +10009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>275</v>
       </c>
@@ -10034,7 +10026,7 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I73" s="3">
         <v>1005.9</v>
@@ -10043,7 +10035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>277</v>
       </c>
@@ -10060,7 +10052,7 @@
         <v>7</v>
       </c>
       <c r="H74" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I74" s="3">
         <v>1083.5999999999999</v>
@@ -10069,7 +10061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>222</v>
       </c>
@@ -10089,7 +10081,7 @@
         <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I75">
         <v>1.8879999999999999</v>
@@ -10098,7 +10090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>248</v>
       </c>
@@ -10115,7 +10107,7 @@
         <v>7</v>
       </c>
       <c r="H76" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I76">
         <v>0.59399999999999997</v>
@@ -10124,7 +10116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -10141,7 +10133,7 @@
         <v>1120</v>
       </c>
       <c r="H77" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I77">
         <v>2.7370000000000001</v>
@@ -10150,7 +10142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>170</v>
       </c>
@@ -10167,7 +10159,7 @@
         <v>498</v>
       </c>
       <c r="H78" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I78">
         <v>1.37</v>
@@ -10176,7 +10168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>212</v>
       </c>
@@ -10196,7 +10188,7 @@
         <v>138</v>
       </c>
       <c r="H79" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I79">
         <v>0.69399999999999995</v>
@@ -10205,7 +10197,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>266</v>
       </c>
@@ -10222,7 +10214,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I80">
         <v>871.17</v>
@@ -10231,7 +10223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>278</v>
       </c>
@@ -10248,7 +10240,7 @@
         <v>5</v>
       </c>
       <c r="H81" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I81" s="3">
         <v>1086.0999999999999</v>
@@ -10257,7 +10249,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>280</v>
       </c>
@@ -10274,7 +10266,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I82" s="3">
         <v>1260.3</v>
@@ -10283,7 +10275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -10300,7 +10292,7 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I83" s="3">
         <v>1490.9</v>
@@ -10309,7 +10301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>293</v>
       </c>
@@ -10326,7 +10318,7 @@
         <v>6</v>
       </c>
       <c r="H84" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I84">
         <v>921.2</v>
@@ -10335,7 +10327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>284</v>
       </c>
@@ -10352,7 +10344,7 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I85" s="3">
         <v>1038.7</v>
@@ -10361,7 +10353,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>217</v>
       </c>
@@ -10381,7 +10373,7 @@
         <v>36</v>
       </c>
       <c r="H86" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I86">
         <v>2.7370000000000001</v>
@@ -10390,7 +10382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>194</v>
       </c>
@@ -10410,7 +10402,7 @@
         <v>360</v>
       </c>
       <c r="H87" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I87">
         <v>21.277000000000001</v>
@@ -10419,7 +10411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>285</v>
       </c>
@@ -10436,7 +10428,7 @@
         <v>8</v>
       </c>
       <c r="H88" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I88">
         <v>931.8</v>
@@ -10445,7 +10437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>198</v>
       </c>
@@ -10462,7 +10454,7 @@
         <v>1436</v>
       </c>
       <c r="H89" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I89">
         <v>79.3215</v>
@@ -10471,7 +10463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>258</v>
       </c>
@@ -10488,7 +10480,7 @@
         <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I90">
         <v>451.48</v>
@@ -10497,7 +10489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>207</v>
       </c>
@@ -10517,7 +10509,7 @@
         <v>190</v>
       </c>
       <c r="H91" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I91">
         <v>0.69499999999999995</v>
@@ -10526,7 +10518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -10543,7 +10535,7 @@
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I92">
         <v>964.7</v>
@@ -10552,7 +10544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>286</v>
       </c>
@@ -10569,7 +10561,7 @@
         <v>7</v>
       </c>
       <c r="H93" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I93" s="3">
         <v>1233.5999999999999</v>
@@ -10578,7 +10570,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>260</v>
       </c>
@@ -10595,7 +10587,7 @@
         <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I94">
         <v>449.22</v>
@@ -10604,7 +10596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>287</v>
       </c>
@@ -10621,7 +10613,7 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I95" s="3">
         <v>1312</v>
@@ -10630,7 +10622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>241</v>
       </c>
@@ -10647,7 +10639,7 @@
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I96">
         <v>1.01</v>
@@ -10656,7 +10648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>165</v>
       </c>
@@ -10673,7 +10665,7 @@
         <v>398</v>
       </c>
       <c r="H97" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I97">
         <v>0.94199999999999995</v>
@@ -10682,7 +10674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>261</v>
       </c>
@@ -10699,7 +10691,7 @@
         <v>7</v>
       </c>
       <c r="H98" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I98">
         <v>951.38</v>
@@ -10708,7 +10700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>270</v>
       </c>
@@ -10725,7 +10717,7 @@
         <v>8</v>
       </c>
       <c r="H99" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I99">
         <v>956.2</v>
@@ -10734,7 +10726,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>255</v>
       </c>
@@ -10751,7 +10743,7 @@
         <v>25</v>
       </c>
       <c r="H100" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I100">
         <v>686.92</v>
@@ -10760,7 +10752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>244</v>
       </c>
@@ -10777,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I101">
         <v>1.1399999999999999</v>
@@ -10786,7 +10778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>237</v>
       </c>
@@ -10803,7 +10795,7 @@
         <v>19.32</v>
       </c>
       <c r="H102" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I102">
         <v>0.57499999999999996</v>
@@ -10812,7 +10804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -10832,7 +10824,7 @@
         <v>110</v>
       </c>
       <c r="H103" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I103">
         <v>0.629</v>
@@ -10841,7 +10833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>202</v>
       </c>
@@ -10858,7 +10850,7 @@
         <v>220</v>
       </c>
       <c r="H104" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I104">
         <v>550.48</v>
@@ -10867,7 +10859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -10884,7 +10876,7 @@
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I105">
         <v>2.74</v>
@@ -10893,7 +10885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>229</v>
       </c>
@@ -10913,7 +10905,7 @@
         <v>68</v>
       </c>
       <c r="H106" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I106">
         <v>0.61299999999999999</v>
@@ -10922,7 +10914,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>185</v>
       </c>
@@ -10939,7 +10931,7 @@
         <v>1528</v>
       </c>
       <c r="H107" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I107">
         <v>4.5179999999999998</v>
@@ -10948,7 +10940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>267</v>
       </c>
@@ -10965,7 +10957,7 @@
         <v>45</v>
       </c>
       <c r="H108" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I108">
         <v>893.07</v>
@@ -10974,7 +10966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>265</v>
       </c>
@@ -10991,7 +10983,7 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I109">
         <v>728.93</v>
@@ -11000,7 +10992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>288</v>
       </c>
@@ -11017,7 +11009,7 @@
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I110">
         <v>878.3</v>
@@ -11026,7 +11018,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>290</v>
       </c>
@@ -11043,7 +11035,7 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I111" s="3">
         <v>1297.7</v>
@@ -11052,7 +11044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>259</v>
       </c>
@@ -11069,7 +11061,7 @@
         <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I112">
         <v>1016.8</v>
@@ -11078,7 +11070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>295</v>
       </c>
@@ -11095,7 +11087,7 @@
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I113" s="1">
         <v>1103</v>
@@ -11104,7 +11096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>296</v>
       </c>
@@ -11121,7 +11113,7 @@
         <v>5</v>
       </c>
       <c r="H114" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I114" s="1">
         <v>1048</v>
@@ -11130,7 +11122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>297</v>
       </c>
@@ -11147,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I115">
         <v>906</v>
@@ -11156,7 +11148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>298</v>
       </c>
@@ -11173,7 +11165,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I116">
         <v>986</v>
@@ -11182,7 +11174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>300</v>
       </c>
@@ -11199,7 +11191,7 @@
         <v>6</v>
       </c>
       <c r="H117" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I117">
         <v>970</v>
@@ -11208,7 +11200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>301</v>
       </c>
@@ -11225,7 +11217,7 @@
         <v>6</v>
       </c>
       <c r="H118" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I118" s="1">
         <v>1142</v>
@@ -11234,7 +11226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>302</v>
       </c>
@@ -11251,7 +11243,7 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I119">
         <v>800</v>
@@ -11260,7 +11252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>303</v>
       </c>
@@ -11277,7 +11269,7 @@
         <v>5</v>
       </c>
       <c r="H120" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I120" s="1">
         <v>1100</v>
@@ -11286,7 +11278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>294</v>
       </c>
@@ -11303,7 +11295,7 @@
         <v>7</v>
       </c>
       <c r="H121" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I121">
         <v>887.5</v>
@@ -11312,7 +11304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>257</v>
       </c>
@@ -11329,7 +11321,7 @@
         <v>16</v>
       </c>
       <c r="H122" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I122">
         <v>925.7</v>
@@ -11338,7 +11330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>220</v>
       </c>
@@ -11358,7 +11350,7 @@
         <v>30</v>
       </c>
       <c r="H123" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I123">
         <v>1.8879999999999999</v>
@@ -11367,7 +11359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>175</v>
       </c>
@@ -11384,7 +11376,7 @@
         <v>1060</v>
       </c>
       <c r="H124" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I124">
         <v>1.8879999999999999</v>
@@ -11393,7 +11385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>269</v>
       </c>
@@ -11410,7 +11402,7 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I125">
         <v>1088.8900000000001</v>
@@ -11419,7 +11411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>190</v>
       </c>
@@ -11436,7 +11428,7 @@
         <v>5150</v>
       </c>
       <c r="H126" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I126">
         <v>15.945</v>
@@ -11445,7 +11437,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -11462,7 +11454,7 @@
         <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I127">
         <v>1312.37</v>
@@ -11471,7 +11463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>305</v>
       </c>
@@ -11488,7 +11480,7 @@
         <v>1160</v>
       </c>
       <c r="H128" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I128">
         <v>2.52</v>
@@ -11497,7 +11489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>364</v>
       </c>
@@ -11514,7 +11506,7 @@
         <v>66</v>
       </c>
       <c r="H129" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I129">
         <v>0.624</v>
@@ -11523,7 +11515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>340</v>
       </c>
@@ -11540,7 +11532,7 @@
         <v>42</v>
       </c>
       <c r="H130" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I130">
         <v>0.433</v>
@@ -11549,7 +11541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>372</v>
       </c>
@@ -11566,7 +11558,7 @@
         <v>80</v>
       </c>
       <c r="H131" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I131">
         <v>579.5</v>
@@ -11575,7 +11567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>334</v>
       </c>
@@ -11592,7 +11584,7 @@
         <v>26</v>
       </c>
       <c r="H132" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I132">
         <v>0.33500000000000002</v>
@@ -11601,7 +11593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>344</v>
       </c>
@@ -11618,7 +11610,7 @@
         <v>62</v>
       </c>
       <c r="H133" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I133">
         <v>0.46400000000000002</v>
@@ -11627,7 +11619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>391</v>
       </c>
@@ -11644,7 +11636,7 @@
         <v>12</v>
       </c>
       <c r="H134" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I134">
         <v>0.61799999999999999</v>
@@ -11653,7 +11645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>348</v>
       </c>
@@ -11670,7 +11662,7 @@
         <v>54</v>
       </c>
       <c r="H135" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I135">
         <v>0.47399999999999998</v>
@@ -11679,7 +11671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>381</v>
       </c>
@@ -11696,7 +11688,7 @@
         <v>21</v>
       </c>
       <c r="H136" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I136" s="3">
         <v>2823.4</v>
@@ -11705,7 +11697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>379</v>
       </c>
@@ -11722,7 +11714,7 @@
         <v>22</v>
       </c>
       <c r="H137" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I137">
         <v>266.60000000000002</v>
@@ -11731,7 +11723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>352</v>
       </c>
@@ -11748,7 +11740,7 @@
         <v>84</v>
       </c>
       <c r="H138" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I138">
         <v>0.49299999999999999</v>
@@ -11757,7 +11749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>387</v>
       </c>
@@ -11774,7 +11766,7 @@
         <v>16</v>
       </c>
       <c r="H139" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I139">
         <v>0.92300000000000004</v>
@@ -11783,7 +11775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>380</v>
       </c>
@@ -11800,7 +11792,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I140" s="3">
         <v>1694.8</v>
@@ -11809,7 +11801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>328</v>
       </c>
@@ -11826,7 +11818,7 @@
         <v>472</v>
       </c>
       <c r="H141" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I141">
         <v>1.4139999999999999</v>
@@ -11835,7 +11827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>323</v>
       </c>
@@ -11852,7 +11844,7 @@
         <v>1526</v>
       </c>
       <c r="H142" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I142">
         <v>13.462999999999999</v>
@@ -11861,7 +11853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>337</v>
       </c>
@@ -11878,7 +11870,7 @@
         <v>30.4</v>
       </c>
       <c r="H143" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I143">
         <v>0.37640000000000001</v>
@@ -11887,7 +11879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>383</v>
       </c>
@@ -11904,7 +11896,7 @@
         <v>20</v>
       </c>
       <c r="H144" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I144">
         <v>0.63800000000000001</v>
@@ -11913,7 +11905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>356</v>
       </c>
@@ -11930,7 +11922,7 @@
         <v>108</v>
       </c>
       <c r="H145" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I145">
         <v>0.51300000000000001</v>
@@ -11939,7 +11931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>374</v>
       </c>
@@ -11956,7 +11948,7 @@
         <v>30</v>
       </c>
       <c r="H146" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I146">
         <v>5.3460000000000001</v>
@@ -11965,7 +11957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>368</v>
       </c>
@@ -11982,7 +11974,7 @@
         <v>154</v>
       </c>
       <c r="H147" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I147">
         <v>0.76200000000000001</v>
@@ -11991,7 +11983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>360</v>
       </c>
@@ -12008,7 +12000,7 @@
         <v>54</v>
       </c>
       <c r="H148" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I148">
         <v>0.55800000000000005</v>
@@ -12017,7 +12009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>375</v>
       </c>
@@ -12034,7 +12026,7 @@
         <v>47</v>
       </c>
       <c r="H149" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I149" s="3">
         <v>2234.8000000000002</v>
@@ -12043,7 +12035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>376</v>
       </c>
@@ -12060,7 +12052,7 @@
         <v>32</v>
       </c>
       <c r="H150" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I150">
         <v>677.4</v>
@@ -12069,7 +12061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>373</v>
       </c>
@@ -12086,7 +12078,7 @@
         <v>160</v>
       </c>
       <c r="H151" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I151">
         <v>1283.3900000000001</v>
@@ -12095,7 +12087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>317</v>
       </c>
@@ -12114,7 +12106,7 @@
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I152">
         <v>8.7059999999999995</v>
@@ -12123,7 +12115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>377</v>
       </c>
@@ -12140,7 +12132,7 @@
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I153">
         <v>759</v>
@@ -12149,7 +12141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>311</v>
       </c>
@@ -12166,7 +12158,7 @@
         <v>1190</v>
       </c>
       <c r="H154" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I154">
         <v>4.1440000000000001</v>
@@ -12175,7 +12167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>404</v>
       </c>
@@ -12192,7 +12184,7 @@
         <v>160</v>
       </c>
       <c r="H155" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I155">
         <v>0.4</v>
@@ -12201,7 +12193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>406</v>
       </c>
@@ -12218,7 +12210,7 @@
         <v>140</v>
       </c>
       <c r="H156" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I156">
         <v>0.33</v>
@@ -12227,7 +12219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>412</v>
       </c>
@@ -12244,7 +12236,7 @@
         <v>60</v>
       </c>
       <c r="H157" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I157" s="3">
         <v>1874.83</v>
@@ -12253,7 +12245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>408</v>
       </c>
@@ -12270,7 +12262,7 @@
         <v>200</v>
       </c>
       <c r="H158" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I158">
         <v>0.56000000000000005</v>
@@ -12279,7 +12271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>416</v>
       </c>
@@ -12296,7 +12288,7 @@
         <v>38</v>
       </c>
       <c r="H159" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I159" s="3">
         <v>2980.4</v>
@@ -12305,7 +12297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>400</v>
       </c>
@@ -12322,7 +12314,7 @@
         <v>50</v>
       </c>
       <c r="H160" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I160">
         <v>0.3</v>
@@ -12331,7 +12323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>398</v>
       </c>
@@ -12348,7 +12340,7 @@
         <v>340</v>
       </c>
       <c r="H161" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I161">
         <v>360.16</v>
@@ -12357,7 +12349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>417</v>
       </c>
@@ -12374,7 +12366,7 @@
         <v>60</v>
       </c>
       <c r="H162" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I162" s="3">
         <v>9007.1</v>
@@ -12383,7 +12375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>410</v>
       </c>
@@ -12400,7 +12392,7 @@
         <v>420</v>
       </c>
       <c r="H163" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I163">
         <v>1.1200000000000001</v>
@@ -12409,7 +12401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>413</v>
       </c>
@@ -12426,7 +12418,7 @@
         <v>38</v>
       </c>
       <c r="H164" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I164" s="3">
         <v>9136.11</v>
@@ -12435,7 +12427,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>415</v>
       </c>
@@ -12452,7 +12444,7 @@
         <v>38</v>
       </c>
       <c r="H165" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I165" s="3">
         <v>2925.6</v>
@@ -12461,7 +12453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>402</v>
       </c>
@@ -12478,7 +12470,7 @@
         <v>90</v>
       </c>
       <c r="H166" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I166">
         <v>0.31</v>
@@ -12487,7 +12479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>394</v>
       </c>
@@ -12504,7 +12496,7 @@
         <v>2705</v>
       </c>
       <c r="H167" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I167">
         <v>5.8769999999999998</v>
@@ -12513,7 +12505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>420</v>
       </c>
@@ -12532,7 +12524,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I168">
         <v>6.3869999999999996</v>
@@ -12541,7 +12533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>426</v>
       </c>
@@ -12561,7 +12553,7 @@
         <v>130</v>
       </c>
       <c r="H169" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I169">
         <v>24.856000000000002</v>
@@ -12570,7 +12562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>430</v>
       </c>
@@ -12590,7 +12582,7 @@
         <v>130</v>
       </c>
       <c r="H170" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="I170">
         <v>38.206000000000003</v>
@@ -12599,7 +12591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>504</v>
       </c>
@@ -12616,7 +12608,7 @@
         <v>170</v>
       </c>
       <c r="H171" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I171">
         <v>34.700000000000003</v>
@@ -12625,7 +12617,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>505</v>
       </c>
@@ -12642,7 +12634,7 @@
         <v>310</v>
       </c>
       <c r="H172" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I172">
         <v>49.12</v>
@@ -12651,7 +12643,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>506</v>
       </c>
@@ -12668,7 +12660,7 @@
         <v>300</v>
       </c>
       <c r="H173" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="I173">
         <v>14</v>
@@ -12684,52 +12676,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135BA3CB-BEF1-40A1-8CAA-B97DC3B5EC75}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
